--- a/data/raw/WB.xlsx
+++ b/data/raw/WB.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76975ab2cf1bc5f3/School/KUL - MME/Home bias/master-thesis-home-bias/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_FC67D356454CBF5BF97E5152C16CA65D8C98E899" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01F73D9A-FC81-47C7-8FB9-FED17B532A21}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_FC67D356454CBF5BF97E5152C16CA65D8C98E899" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E714F913-4CC8-4625-BAB1-F752D5C34859}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3525" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5312" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="566">
   <si>
     <t>Iraq</t>
   </si>
@@ -1767,9 +1766,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1785,6 +1785,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2075,10 +2079,10 @@
   <dimension ref="A1:AC272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J267" sqref="J267"/>
+      <selection pane="bottomRight" activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16520,20 +16524,20 @@
       <c r="E163" t="s">
         <v>59</v>
       </c>
-      <c r="F163" t="s">
-        <v>59</v>
-      </c>
-      <c r="G163" t="s">
-        <v>59</v>
-      </c>
-      <c r="H163" t="s">
-        <v>59</v>
-      </c>
-      <c r="I163" t="s">
-        <v>59</v>
-      </c>
-      <c r="J163" t="s">
-        <v>59</v>
+      <c r="F163" s="2">
+        <v>38920000000</v>
+      </c>
+      <c r="G163" s="2">
+        <v>76200000000</v>
+      </c>
+      <c r="H163" s="2">
+        <v>124200000000</v>
+      </c>
+      <c r="I163" s="2">
+        <v>230790000000</v>
+      </c>
+      <c r="J163" s="2">
+        <v>267960000000</v>
       </c>
       <c r="K163" t="s">
         <v>59</v>
@@ -25877,16 +25881,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C759DDC7-A040-4F30-A0C8-E354B88FE450}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>